--- a/output/inference_results/test_sheets/batch_004/test_sheet (41).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (41).xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1乙肝表面抗原（酶免法）</t>
+          <t>乙肝表面抗原</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2乙肝表面抗体（酶免法）</t>
+          <t>乙肝表面抗原</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3乙肝e抗原（酶免法）</t>
+          <t>乙肝表面抗原</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4乙肝e抗体（酶免法）</t>
+          <t>乙肝e抗体</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5 乙肝核心抗体（酶免法）</t>
+          <t>乙型肝炎核心抗体定量</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -526,17 +526,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>乙肝病毒前S1抗原（酶免法）0.305</t>
+          <t>乙肝病毒e抗原</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>乙肝病毒前S1抗原（酶免法）0.305</t>
+          <t>（酶免法）0.305</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;1,000</t>
+          <t>&lt;1.000</t>
         </is>
       </c>
     </row>
